--- a/biology/Médecine/Fatoumata_Nafo-Traoré/Fatoumata_Nafo-Traoré.xlsx
+++ b/biology/Médecine/Fatoumata_Nafo-Traoré/Fatoumata_Nafo-Traoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fatoumata_Nafo-Traor%C3%A9</t>
+          <t>Fatoumata_Nafo-Traoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fatoumata Nafo-Traoré, née en 1958, est une femme médecin malienne. Elle a notamment été ministre de la Santé de 2000 à 2002 et ministre du Développement social, de la Solidarité et des Personnes âgées en 2002.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fatoumata_Nafo-Traor%C3%A9</t>
+          <t>Fatoumata_Nafo-Traoré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fatoumata Nafo-Traoré obtient en 1984 un doctorat d'État en médecine à l'École Nationale de Médecine et de Pharmacie de Bamako, une licence spéciale en santé publique, option santé familiale et une spécialisation en épidémiologie à l'École de santé publique de l'université libre de Bruxelles, respectivement en 1990 et 1991 et un certificat d'économie et de gestion des programmes de santé à l'université de Boston en 1993[1].
-Elle est ministre de la Santé du 21 février 2000 au 16 octobre 2002 et ministre du Développement social, de la Solidarité et des Personnes âgées d'avril à juin 2002[2].
-Elle est directrice du Département chargé de la lutte contre le paludisme de 2004 à 2005 et représentante de l'Organisation mondiale de la santé au Congo de février 2006 à décembre 2007, et en Éthiopie de 2007 à 2012. Elle est la directrice exécutive du Programme mondial de lutte contre le paludisme depuis juin 2012[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fatoumata Nafo-Traoré obtient en 1984 un doctorat d'État en médecine à l'École Nationale de Médecine et de Pharmacie de Bamako, une licence spéciale en santé publique, option santé familiale et une spécialisation en épidémiologie à l'École de santé publique de l'université libre de Bruxelles, respectivement en 1990 et 1991 et un certificat d'économie et de gestion des programmes de santé à l'université de Boston en 1993.
+Elle est ministre de la Santé du 21 février 2000 au 16 octobre 2002 et ministre du Développement social, de la Solidarité et des Personnes âgées d'avril à juin 2002.
+Elle est directrice du Département chargé de la lutte contre le paludisme de 2004 à 2005 et représentante de l'Organisation mondiale de la santé au Congo de février 2006 à décembre 2007, et en Éthiopie de 2007 à 2012. Elle est la directrice exécutive du Programme mondial de lutte contre le paludisme depuis juin 2012.
 </t>
         </is>
       </c>
